--- a/data/typhoon/wind_record.xlsx
+++ b/data/typhoon/wind_record.xlsx
@@ -493,41 +493,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23/09/2025 20:50</t>
+          <t>24/09/2025 07:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/09/2025 23:30</t>
+          <t>24/09/2025 08:50</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>23/09/2025 20:50</t>
+          <t>24/09/2025 07:30</t>
         </is>
       </c>
     </row>
@@ -537,13 +537,17 @@
           <t>京士柏</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>東北</t>
+        </is>
+      </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23/09/2025 13:10</t>
+          <t>24/09/2025 05:20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -552,20 +556,24 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/09/2025 00:20</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>24/09/2025 07:30</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>東北</t>
+        </is>
+      </c>
       <c r="I3" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>23/09/2025 13:10</t>
+          <t>24/09/2025 05:20</t>
         </is>
       </c>
     </row>
@@ -577,41 +585,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23/09/2025 22:20</t>
+          <t>24/09/2025 08:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 06:50</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>23/09/2025 22:20</t>
+          <t>24/09/2025 08:00</t>
         </is>
       </c>
     </row>
@@ -623,41 +631,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23/09/2025 20:40</t>
+          <t>24/09/2025 06:50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/09/2025 23:50</t>
+          <t>24/09/2025 06:50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>23/09/2025 20:40</t>
+          <t>24/09/2025 06:50</t>
         </is>
       </c>
     </row>
@@ -669,41 +677,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23/09/2025 13:20</t>
+          <t>24/09/2025 09:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/09/2025 22:40</t>
+          <t>24/09/2025 04:30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>23/09/2025 13:20</t>
+          <t>24/09/2025 09:00</t>
         </is>
       </c>
     </row>
@@ -715,41 +723,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 07:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/09/2025 00:10</t>
+          <t>24/09/2025 06:40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 07:30</t>
         </is>
       </c>
     </row>
@@ -761,41 +769,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23/09/2025 22:10</t>
+          <t>24/09/2025 06:20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/09/2025 00:00</t>
+          <t>24/09/2025 06:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>23/09/2025 22:10</t>
+          <t>24/09/2025 06:20</t>
         </is>
       </c>
     </row>
@@ -807,41 +815,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23/09/2025 22:10</t>
+          <t>24/09/2025 08:20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/09/2025 22:10</t>
+          <t>24/09/2025 06:40</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>23/09/2025 22:10</t>
+          <t>24/09/2025 08:20</t>
         </is>
       </c>
     </row>
@@ -853,41 +861,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>東北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24/09/2025 00:00</t>
+          <t>24/09/2025 05:20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>東北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/09/2025 23:40</t>
+          <t>24/09/2025 04:40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>東北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>24/09/2025 00:20</t>
+          <t>24/09/2025 05:20</t>
         </is>
       </c>
     </row>
@@ -899,29 +907,29 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23/09/2025 23:40</t>
+          <t>24/09/2025 06:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/09/2025 00:20</t>
+          <t>24/09/2025 06:20</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>23/09/2025 23:40</t>
+          <t>24/09/2025 06:30</t>
         </is>
       </c>
     </row>
@@ -933,41 +941,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23/09/2025 12:40</t>
+          <t>24/09/2025 09:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>風向不定</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/09/2025 23:20</t>
+          <t>24/09/2025 08:50</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>23/09/2025 12:40</t>
+          <t>24/09/2025 09:00</t>
         </is>
       </c>
     </row>
@@ -979,41 +987,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23/09/2025 12:50</t>
+          <t>24/09/2025 03:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/09/2025 22:10</t>
+          <t>24/09/2025 06:10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>23/09/2025 12:50</t>
+          <t>24/09/2025 03:00</t>
         </is>
       </c>
     </row>
@@ -1025,15 +1033,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>西北</t>
+          <t>北</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23/09/2025 13:40</t>
+          <t>24/09/2025 06:40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1042,24 +1050,24 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 05:50</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>西北</t>
+          <t>北</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>23/09/2025 13:40</t>
+          <t>24/09/2025 06:40</t>
         </is>
       </c>
     </row>
@@ -1075,11 +1083,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 03:40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1088,11 +1096,11 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/09/2025 23:50</t>
+          <t>24/09/2025 05:30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1101,11 +1109,11 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 03:40</t>
         </is>
       </c>
     </row>
@@ -1117,41 +1125,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>東北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>23/09/2025 23:50</t>
+          <t>24/09/2025 07:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>東北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 07:40</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>東北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>23/09/2025 23:50</t>
+          <t>24/09/2025 07:30</t>
         </is>
       </c>
     </row>
@@ -1163,41 +1171,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 05:20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 04:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>24/09/2025 00:40</t>
+          <t>24/09/2025 05:20</t>
         </is>
       </c>
     </row>
@@ -1209,41 +1217,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23/09/2025 23:50</t>
+          <t>24/09/2025 07:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/09/2025 23:50</t>
+          <t>24/09/2025 07:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>23/09/2025 23:50</t>
+          <t>24/09/2025 07:00</t>
         </is>
       </c>
     </row>
@@ -1255,41 +1263,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23/09/2025 22:30</t>
+          <t>24/09/2025 04:50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/09/2025 22:30</t>
+          <t>24/09/2025 06:10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>23/09/2025 22:30</t>
+          <t>24/09/2025 04:50</t>
         </is>
       </c>
     </row>
@@ -1301,41 +1309,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>24/09/2025 00:10</t>
+          <t>24/09/2025 03:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24/09/2025 00:00</t>
+          <t>24/09/2025 03:30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>24/09/2025 00:10</t>
+          <t>24/09/2025 03:30</t>
         </is>
       </c>
     </row>
@@ -1347,41 +1355,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23/09/2025 13:20</t>
+          <t>24/09/2025 08:40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 07:20</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>23/09/2025 13:20</t>
+          <t>24/09/2025 08:40</t>
         </is>
       </c>
     </row>
@@ -1397,11 +1405,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23/09/2025 23:20</t>
+          <t>24/09/2025 06:50</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1410,11 +1418,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>24/09/2025 00:00</t>
+          <t>24/09/2025 06:40</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1423,11 +1431,11 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>23/09/2025 23:20</t>
+          <t>24/09/2025 06:50</t>
         </is>
       </c>
     </row>
@@ -1439,41 +1447,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>24/09/2025 00:20</t>
+          <t>24/09/2025 06:50</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 05:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>24/09/2025 00:20</t>
+          <t>24/09/2025 06:50</t>
         </is>
       </c>
     </row>
@@ -1485,41 +1493,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23/09/2025 23:20</t>
+          <t>24/09/2025 06:50</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>24/09/2025 00:20</t>
+          <t>24/09/2025 06:30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23/09/2025 23:20</t>
+          <t>24/09/2025 06:50</t>
         </is>
       </c>
     </row>
@@ -1531,41 +1539,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23/09/2025 23:50</t>
+          <t>24/09/2025 09:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/09/2025 00:00</t>
+          <t>24/09/2025 09:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>23/09/2025 23:50</t>
+          <t>24/09/2025 09:00</t>
         </is>
       </c>
     </row>
@@ -1581,11 +1589,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 08:20</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1594,11 +1602,11 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/09/2025 23:30</t>
+          <t>24/09/2025 08:20</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1607,11 +1615,11 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 08:20</t>
         </is>
       </c>
     </row>
@@ -1623,41 +1631,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>東北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>23/09/2025 18:30</t>
+          <t>24/09/2025 11:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>東北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/09/2025 18:30</t>
+          <t>24/09/2025 11:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>東北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>23/09/2025 18:30</t>
+          <t>24/09/2025 11:30</t>
         </is>
       </c>
     </row>
@@ -1669,41 +1677,41 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 04:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 04:20</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>24/09/2025 00:30</t>
+          <t>24/09/2025 04:30</t>
         </is>
       </c>
     </row>
@@ -1728,15 +1736,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>西北</t>
+          <t>東</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/09/2025 21:30</t>
+          <t>24/09/2025 06:50</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1761,41 +1769,41 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>東北</t>
+          <t>東南</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>24/09/2025 00:10</t>
+          <t>24/09/2025 06:40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>東北</t>
+          <t>東南</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24/09/2025 00:10</t>
+          <t>24/09/2025 06:20</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>東北</t>
+          <t>東南</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>24/09/2025 00:10</t>
+          <t>24/09/2025 06:40</t>
         </is>
       </c>
     </row>
@@ -1807,41 +1815,41 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>西北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23/09/2025 23:20</t>
+          <t>24/09/2025 07:40</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>西</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/09/2025 22:20</t>
+          <t>24/09/2025 07:40</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>西北</t>
+          <t>東北</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>23/09/2025 23:20</t>
+          <t>24/09/2025 07:40</t>
         </is>
       </c>
     </row>
